--- a/Code/Results/Cases/Case_3_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_144/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.122487384884465</v>
+        <v>1.029176170270688</v>
       </c>
       <c r="C2">
-        <v>0.09236422544100975</v>
+        <v>0.09424712833713755</v>
       </c>
       <c r="D2">
-        <v>0.03886956343773562</v>
+        <v>0.07680337756706024</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.80182311231215</v>
+        <v>2.957201335550664</v>
       </c>
       <c r="G2">
-        <v>1.510490551790639</v>
+        <v>2.21897912280069</v>
       </c>
       <c r="H2">
-        <v>0.9958323404894571</v>
+        <v>1.844605457834135</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.116898614472273</v>
+        <v>0.2479971667844367</v>
       </c>
       <c r="K2">
-        <v>0.8780070141486647</v>
+        <v>0.5339279375396586</v>
       </c>
       <c r="L2">
-        <v>0.2032043641840744</v>
+        <v>0.3109918285135507</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9837362954741593</v>
+        <v>0.9983222857232477</v>
       </c>
       <c r="C3">
-        <v>0.08896317612389737</v>
+        <v>0.09287175046907947</v>
       </c>
       <c r="D3">
-        <v>0.03467673297053864</v>
+        <v>0.07616361129435489</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.737106098690873</v>
+        <v>2.952596840799941</v>
       </c>
       <c r="G3">
-        <v>1.452690363899706</v>
+        <v>2.212568203605841</v>
       </c>
       <c r="H3">
-        <v>0.9768262849523239</v>
+        <v>1.846678110595093</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1152413139543853</v>
+        <v>0.2485351462278231</v>
       </c>
       <c r="K3">
-        <v>0.7613956464234377</v>
+        <v>0.5052137598555362</v>
       </c>
       <c r="L3">
-        <v>0.1836132396545906</v>
+        <v>0.3077413182180209</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8995146835961236</v>
+        <v>0.9799397599524582</v>
       </c>
       <c r="C4">
-        <v>0.08686379783457809</v>
+        <v>0.09200715584791297</v>
       </c>
       <c r="D4">
-        <v>0.03212785419388808</v>
+        <v>0.07580252123761966</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.699757710256833</v>
+        <v>2.950898676154765</v>
       </c>
       <c r="G4">
-        <v>1.419344287220369</v>
+        <v>2.209540199742975</v>
       </c>
       <c r="H4">
-        <v>0.9663619990369199</v>
+        <v>1.848558441881693</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1143481802027786</v>
+        <v>0.2489384194604831</v>
       </c>
       <c r="K4">
-        <v>0.6903880107820015</v>
+        <v>0.487881853257889</v>
       </c>
       <c r="L4">
-        <v>0.1718010439944706</v>
+        <v>0.3058886117337565</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8654131260739462</v>
+        <v>0.9725904820591609</v>
       </c>
       <c r="C5">
-        <v>0.08600493622716954</v>
+        <v>0.09164976188053231</v>
       </c>
       <c r="D5">
-        <v>0.0310951318309165</v>
+        <v>0.07566339541859435</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.685107321714526</v>
+        <v>2.950490647101887</v>
       </c>
       <c r="G5">
-        <v>1.406264593651471</v>
+        <v>2.208534584098601</v>
       </c>
       <c r="H5">
-        <v>0.9623873163486252</v>
+        <v>1.849477589627725</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1140143564381084</v>
+        <v>0.2491211236943229</v>
       </c>
       <c r="K5">
-        <v>0.661580625760152</v>
+        <v>0.4808943659784859</v>
       </c>
       <c r="L5">
-        <v>0.1670380732918773</v>
+        <v>0.3051697018161263</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8597631395712142</v>
+        <v>0.9713787151113138</v>
       </c>
       <c r="C6">
-        <v>0.08586210535266048</v>
+        <v>0.0915901107445336</v>
       </c>
       <c r="D6">
-        <v>0.03092399673422364</v>
+        <v>0.07564077941324854</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.682708149231814</v>
+        <v>2.950440048913265</v>
       </c>
       <c r="G6">
-        <v>1.404122628140911</v>
+        <v>2.20838138992211</v>
       </c>
       <c r="H6">
-        <v>0.9617444336627443</v>
+        <v>1.849639450502025</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1139607127102558</v>
+        <v>0.2491525715956406</v>
       </c>
       <c r="K6">
-        <v>0.6568043966356072</v>
+        <v>0.4797386620072075</v>
       </c>
       <c r="L6">
-        <v>0.1662501310331166</v>
+        <v>0.3050525094891157</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8990539215339766</v>
+        <v>0.9798400704633252</v>
       </c>
       <c r="C7">
-        <v>0.08685222918224156</v>
+        <v>0.09200235642421717</v>
       </c>
       <c r="D7">
-        <v>0.03211390295937377</v>
+        <v>0.07580061240263802</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.699557864406515</v>
+        <v>2.950892023372631</v>
       </c>
       <c r="G7">
-        <v>1.41916586679173</v>
+        <v>2.209525713317717</v>
       </c>
       <c r="H7">
-        <v>0.9663072398090407</v>
+        <v>1.848570218650892</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1143435576053733</v>
+        <v>0.2489408090758616</v>
       </c>
       <c r="K7">
-        <v>0.6899990084694991</v>
+        <v>0.4877873118583693</v>
       </c>
       <c r="L7">
-        <v>0.1717366090711963</v>
+        <v>0.3058787700382481</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.074428666250469</v>
+        <v>1.018421394234991</v>
       </c>
       <c r="C8">
-        <v>0.09119350584501973</v>
+        <v>0.09377706578501943</v>
       </c>
       <c r="D8">
-        <v>0.03741829053240053</v>
+        <v>0.07657622599830916</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.778993703456052</v>
+        <v>2.955379423650641</v>
       </c>
       <c r="G8">
-        <v>1.490097609431459</v>
+        <v>2.216580056642783</v>
       </c>
       <c r="H8">
-        <v>0.9890204426176297</v>
+        <v>1.845194024316683</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1163006267327873</v>
+        <v>0.2481675344087861</v>
       </c>
       <c r="K8">
-        <v>0.8376639646559454</v>
+        <v>0.5239654541192635</v>
       </c>
       <c r="L8">
-        <v>0.1964018951667441</v>
+        <v>0.3098414026375451</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.427277011437496</v>
+        <v>1.098522673503169</v>
       </c>
       <c r="C9">
-        <v>0.09964593533615584</v>
+        <v>0.09709823304206822</v>
       </c>
       <c r="D9">
-        <v>0.04804549878587494</v>
+        <v>0.07834723994054116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.955224739374401</v>
+        <v>2.973136985386716</v>
       </c>
       <c r="G9">
-        <v>1.647650615875676</v>
+        <v>2.237627619089153</v>
       </c>
       <c r="H9">
-        <v>1.043782273748832</v>
+        <v>1.843392880378531</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1211820811862054</v>
+        <v>0.2472290935122885</v>
       </c>
       <c r="K9">
-        <v>1.132920515152733</v>
+        <v>0.5972724894597832</v>
       </c>
       <c r="L9">
-        <v>0.2466830046623443</v>
+        <v>0.3187443301003725</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.693823907821212</v>
+        <v>1.160069815274085</v>
       </c>
       <c r="C10">
-        <v>0.1058611970491299</v>
+        <v>0.0994422228416596</v>
       </c>
       <c r="D10">
-        <v>0.05602563747608258</v>
+        <v>0.0797987640187543</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.099441835061313</v>
+        <v>2.99164883008693</v>
       </c>
       <c r="G10">
-        <v>1.776834069128597</v>
+        <v>2.257502938068853</v>
       </c>
       <c r="H10">
-        <v>1.091233771603072</v>
+        <v>1.845006398141095</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1254890097884953</v>
+        <v>0.2468909233522183</v>
       </c>
       <c r="K10">
-        <v>1.354811873470737</v>
+        <v>0.6525663123615004</v>
       </c>
       <c r="L10">
-        <v>0.2850811937905888</v>
+        <v>0.3259721391124373</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.81712380270281</v>
+        <v>1.188652780599995</v>
       </c>
       <c r="C11">
-        <v>0.1087003969913667</v>
+        <v>0.1004879037252877</v>
       </c>
       <c r="D11">
-        <v>0.05970200679848858</v>
+        <v>0.08049133038856837</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.16880245694324</v>
+        <v>3.0012584158507</v>
       </c>
       <c r="G11">
-        <v>1.839049234243021</v>
+        <v>2.26750594877268</v>
       </c>
       <c r="H11">
-        <v>1.114628472859096</v>
+        <v>1.846378004157117</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1276252588039384</v>
+        <v>0.246813158880542</v>
       </c>
       <c r="K11">
-        <v>1.457201006987134</v>
+        <v>0.6780320103719362</v>
       </c>
       <c r="L11">
-        <v>0.302936560690469</v>
+        <v>0.3294087582529102</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.864149554542905</v>
+        <v>1.199560180414522</v>
       </c>
       <c r="C12">
-        <v>0.1097782089546939</v>
+        <v>0.1008809240454625</v>
       </c>
       <c r="D12">
-        <v>0.06110155908282877</v>
+        <v>0.08075818741342999</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.195657829168354</v>
+        <v>3.005068228713426</v>
       </c>
       <c r="G12">
-        <v>1.863152828084139</v>
+        <v>2.271432290276636</v>
       </c>
       <c r="H12">
-        <v>1.123769508551192</v>
+        <v>1.846989041964378</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1284615148173316</v>
+        <v>0.2467946311778988</v>
       </c>
       <c r="K12">
-        <v>1.496214759748966</v>
+        <v>0.6877199292309797</v>
       </c>
       <c r="L12">
-        <v>0.3097600820575224</v>
+        <v>0.3307314175974909</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.854006145805982</v>
+        <v>1.197207363433279</v>
       </c>
       <c r="C13">
-        <v>0.109545947721422</v>
+        <v>0.1007964114487265</v>
       </c>
       <c r="D13">
-        <v>0.06079979903775978</v>
+        <v>0.08070051118188104</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.189846960650328</v>
+        <v>3.004240118219627</v>
       </c>
       <c r="G13">
-        <v>1.857936678923096</v>
+        <v>2.270580523993203</v>
       </c>
       <c r="H13">
-        <v>1.121787913124564</v>
+        <v>1.846853369045988</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1282801665367401</v>
+        <v>0.2467981360783043</v>
       </c>
       <c r="K13">
-        <v>1.487801169023669</v>
+        <v>0.6856314830430676</v>
       </c>
       <c r="L13">
-        <v>0.3082876471870435</v>
+        <v>0.3304456139520937</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.820985685853572</v>
+        <v>1.189548465021886</v>
       </c>
       <c r="C14">
-        <v>0.1087890098588531</v>
+        <v>0.1005202969494334</v>
       </c>
       <c r="D14">
-        <v>0.05981699613071356</v>
+        <v>0.08051319298160564</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.170999738044912</v>
+        <v>3.001568427084862</v>
       </c>
       <c r="G14">
-        <v>1.841021056900104</v>
+        <v>2.267826196352047</v>
       </c>
       <c r="H14">
-        <v>1.115374728055912</v>
+        <v>1.846426438261801</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1276934996850443</v>
+        <v>0.2468114158494785</v>
       </c>
       <c r="K14">
-        <v>1.460405659595892</v>
+        <v>0.6788281488559562</v>
       </c>
       <c r="L14">
-        <v>0.3034966535954453</v>
+        <v>0.3295171481367163</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.800804558721694</v>
+        <v>1.184868049136355</v>
       </c>
       <c r="C15">
-        <v>0.108325741453001</v>
+        <v>0.1003507840715301</v>
       </c>
       <c r="D15">
-        <v>0.05921598697527486</v>
+        <v>0.08039905262457125</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.159533664353859</v>
+        <v>2.999954190818471</v>
       </c>
       <c r="G15">
-        <v>1.83073210291991</v>
+        <v>2.266157121390449</v>
       </c>
       <c r="H15">
-        <v>1.111483870061988</v>
+        <v>1.846176863731671</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1273377628638315</v>
+        <v>0.2468209716428404</v>
       </c>
       <c r="K15">
-        <v>1.443657553843224</v>
+        <v>0.674666711410282</v>
       </c>
       <c r="L15">
-        <v>0.3005703131286168</v>
+        <v>0.3289512054629</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.685810529193844</v>
+        <v>1.158213581506232</v>
       </c>
       <c r="C16">
-        <v>0.1056759672690291</v>
+        <v>0.09937347102206928</v>
       </c>
       <c r="D16">
-        <v>0.05578636987719676</v>
+        <v>0.07975414875848941</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.094988699812333</v>
+        <v>2.991044733471668</v>
       </c>
       <c r="G16">
-        <v>1.772841580755568</v>
+        <v>2.256868579963168</v>
       </c>
       <c r="H16">
-        <v>1.089743096133532</v>
+        <v>1.844929586742609</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1253531174266413</v>
+        <v>0.2468975345660098</v>
       </c>
       <c r="K16">
-        <v>1.348152407365234</v>
+        <v>0.6509083276303329</v>
       </c>
       <c r="L16">
-        <v>0.2839226350868103</v>
+        <v>0.3257505315455376</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.615817255694679</v>
+        <v>1.142011403583751</v>
       </c>
       <c r="C17">
-        <v>0.1040541064960934</v>
+        <v>0.09876864731899104</v>
       </c>
       <c r="D17">
-        <v>0.05369474961418774</v>
+        <v>0.07936675396665294</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.056388551457786</v>
+        <v>2.985883442219574</v>
       </c>
       <c r="G17">
-        <v>1.738243909228288</v>
+        <v>2.251416754530567</v>
       </c>
       <c r="H17">
-        <v>1.076884073103201</v>
+        <v>1.844327695893696</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.124182205935405</v>
+        <v>0.2469639735280396</v>
       </c>
       <c r="K17">
-        <v>1.289956785596331</v>
+        <v>0.6364130979513902</v>
       </c>
       <c r="L17">
-        <v>0.2738134810677195</v>
+        <v>0.323825031124727</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.575748964887765</v>
+        <v>1.132747416024387</v>
       </c>
       <c r="C18">
-        <v>0.103122306666215</v>
+        <v>0.09841882817538306</v>
       </c>
       <c r="D18">
-        <v>0.05249600129270249</v>
+        <v>0.07914697374889101</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.034537019538348</v>
+        <v>2.983026668523905</v>
       </c>
       <c r="G18">
-        <v>1.718665758536702</v>
+        <v>2.248371513511188</v>
       </c>
       <c r="H18">
-        <v>1.069656735676631</v>
+        <v>1.844041521671812</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1235252694422329</v>
+        <v>0.2470093487280209</v>
       </c>
       <c r="K18">
-        <v>1.256618524112042</v>
+        <v>0.628105233841012</v>
       </c>
       <c r="L18">
-        <v>0.268035059600038</v>
+        <v>0.3227315314168067</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.562213983995036</v>
+        <v>1.129620262307611</v>
       </c>
       <c r="C19">
-        <v>0.1028069680641579</v>
+        <v>0.09830005190380575</v>
       </c>
       <c r="D19">
-        <v>0.0520908417393926</v>
+        <v>0.07907308318032591</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.027197169528208</v>
+        <v>2.982078627726068</v>
       </c>
       <c r="G19">
-        <v>1.712090755363391</v>
+        <v>2.247355987330934</v>
       </c>
       <c r="H19">
-        <v>1.067238045022947</v>
+        <v>1.843954937511882</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1233056290407362</v>
+        <v>0.247025942523095</v>
       </c>
       <c r="K19">
-        <v>1.245352880070698</v>
+        <v>0.6252973936863668</v>
       </c>
       <c r="L19">
-        <v>0.2660846013997542</v>
+        <v>0.3223636979866029</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.623248213918032</v>
+        <v>1.14373045614019</v>
       </c>
       <c r="C20">
-        <v>0.1042266408338293</v>
+        <v>0.09883323261877308</v>
       </c>
       <c r="D20">
-        <v>0.05391695626502013</v>
+        <v>0.07940767858118392</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.060461005097906</v>
+        <v>2.986421293116962</v>
       </c>
       <c r="G20">
-        <v>1.741893279702111</v>
+        <v>2.251987742748952</v>
       </c>
       <c r="H20">
-        <v>1.078235312192248</v>
+        <v>1.844385556954251</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1243051266345176</v>
+        <v>0.2469561599599643</v>
       </c>
       <c r="K20">
-        <v>1.296137679115475</v>
+        <v>0.6379530983345489</v>
       </c>
       <c r="L20">
-        <v>0.274885837913672</v>
+        <v>0.324028555926887</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.830675169619582</v>
+        <v>1.191795802443949</v>
       </c>
       <c r="C21">
-        <v>0.1090112602378213</v>
+        <v>0.1006014786436182</v>
       </c>
       <c r="D21">
-        <v>0.06010546224732138</v>
+        <v>0.0805680884434139</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.176519191450524</v>
+        <v>3.002348530346836</v>
       </c>
       <c r="G21">
-        <v>1.845974414925792</v>
+        <v>2.268631451412801</v>
       </c>
       <c r="H21">
-        <v>1.117250599408152</v>
+        <v>1.846549351458094</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1278650613652488</v>
+        <v>0.2468072190422319</v>
       </c>
       <c r="K21">
-        <v>1.468445562756159</v>
+        <v>0.6808252445743221</v>
       </c>
       <c r="L21">
-        <v>0.3049021466594013</v>
+        <v>0.3297892840620023</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.968213337566908</v>
+        <v>1.22369666173222</v>
       </c>
       <c r="C22">
-        <v>0.1121543631254696</v>
+        <v>0.1017399014700686</v>
       </c>
       <c r="D22">
-        <v>0.06419348757957977</v>
+        <v>0.08135326001617216</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.255835388102781</v>
+        <v>3.013753857361849</v>
       </c>
       <c r="G22">
-        <v>1.917194131488515</v>
+        <v>2.280315949699826</v>
       </c>
       <c r="H22">
-        <v>1.144404471524439</v>
+        <v>1.848497645353262</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1303518151641185</v>
+        <v>0.2467735190887268</v>
       </c>
       <c r="K22">
-        <v>1.582482055964249</v>
+        <v>0.7091045691662714</v>
       </c>
       <c r="L22">
-        <v>0.324884730540802</v>
+        <v>0.3336782843926329</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.894611797783455</v>
+        <v>1.206626125644021</v>
       </c>
       <c r="C23">
-        <v>0.1104750129354244</v>
+        <v>0.1011338776107138</v>
       </c>
       <c r="D23">
-        <v>0.06200738676868411</v>
+        <v>0.08093176285376558</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.213168073176035</v>
+        <v>3.007575498284268</v>
       </c>
       <c r="G23">
-        <v>1.878873303958841</v>
+        <v>2.274005838723497</v>
       </c>
       <c r="H23">
-        <v>1.129752750221115</v>
+        <v>1.847408946681156</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.129009281706665</v>
+        <v>0.2467856883832553</v>
       </c>
       <c r="K23">
-        <v>1.521476793403735</v>
+        <v>0.6939876758729042</v>
       </c>
       <c r="L23">
-        <v>0.3141840036751091</v>
+        <v>0.3315913323103814</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.61988814568349</v>
+        <v>1.142953114021111</v>
       </c>
       <c r="C24">
-        <v>0.1041486361703292</v>
+        <v>0.09880404014103306</v>
       </c>
       <c r="D24">
-        <v>0.05381648500743097</v>
+        <v>0.07938916740845769</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.05861879286131</v>
+        <v>2.986177786444259</v>
       </c>
       <c r="G24">
-        <v>1.740242429492525</v>
+        <v>2.251729321479075</v>
       </c>
       <c r="H24">
-        <v>1.077623903177539</v>
+        <v>1.844359211490314</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1242495037525941</v>
+        <v>0.2469596701122043</v>
       </c>
       <c r="K24">
-        <v>1.293342928386835</v>
+        <v>0.6372567842858246</v>
       </c>
       <c r="L24">
-        <v>0.2744009216154524</v>
+        <v>0.3239365003193342</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.33068203236482</v>
+        <v>1.076378724724435</v>
       </c>
       <c r="C25">
-        <v>0.09736170915093112</v>
+        <v>0.0962167044619946</v>
       </c>
       <c r="D25">
-        <v>0.04514299779927455</v>
+        <v>0.07784158077770087</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.905135835924284</v>
+        <v>2.967373645019933</v>
       </c>
       <c r="G25">
-        <v>1.602837912495175</v>
+        <v>2.231159958297553</v>
       </c>
       <c r="H25">
-        <v>1.027776298147302</v>
+        <v>1.843364309829497</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1197414742994596</v>
+        <v>0.2474212003473042</v>
       </c>
       <c r="K25">
-        <v>1.052289435693382</v>
+        <v>0.5771886440400351</v>
       </c>
       <c r="L25">
-        <v>0.2328472192231175</v>
+        <v>0.3162149952619728</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_144/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.029176170270688</v>
+        <v>1.12248738488438</v>
       </c>
       <c r="C2">
-        <v>0.09424712833713755</v>
+        <v>0.09236422544088185</v>
       </c>
       <c r="D2">
-        <v>0.07680337756706024</v>
+        <v>0.03886956343775694</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.957201335550664</v>
+        <v>1.801823112312135</v>
       </c>
       <c r="G2">
-        <v>2.21897912280069</v>
+        <v>1.510490551790639</v>
       </c>
       <c r="H2">
-        <v>1.844605457834135</v>
+        <v>0.9958323404894145</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2479971667844367</v>
+        <v>0.1168986144722517</v>
       </c>
       <c r="K2">
-        <v>0.5339279375396586</v>
+        <v>0.8780070141486078</v>
       </c>
       <c r="L2">
-        <v>0.3109918285135507</v>
+        <v>0.2032043641841597</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9983222857232477</v>
+        <v>0.9837362954740172</v>
       </c>
       <c r="C3">
-        <v>0.09287175046907947</v>
+        <v>0.08896317612389737</v>
       </c>
       <c r="D3">
-        <v>0.07616361129435489</v>
+        <v>0.03467673297065943</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.952596840799941</v>
+        <v>1.737106098690845</v>
       </c>
       <c r="G3">
-        <v>2.212568203605841</v>
+        <v>1.452690363899677</v>
       </c>
       <c r="H3">
-        <v>1.846678110595093</v>
+        <v>0.9768262849523239</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2485351462278231</v>
+        <v>0.1152413139544137</v>
       </c>
       <c r="K3">
-        <v>0.5052137598555362</v>
+        <v>0.761395646423523</v>
       </c>
       <c r="L3">
-        <v>0.3077413182180209</v>
+        <v>0.1836132396547612</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9799397599524582</v>
+        <v>0.8995146835961236</v>
       </c>
       <c r="C4">
-        <v>0.09200715584791297</v>
+        <v>0.08686379783470244</v>
       </c>
       <c r="D4">
-        <v>0.07580252123761966</v>
+        <v>0.03212785419399466</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.950898676154765</v>
+        <v>1.699757710256833</v>
       </c>
       <c r="G4">
-        <v>2.209540199742975</v>
+        <v>1.419344287220369</v>
       </c>
       <c r="H4">
-        <v>1.848558441881693</v>
+        <v>0.9663619990368062</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2489384194604831</v>
+        <v>0.1143481802027608</v>
       </c>
       <c r="K4">
-        <v>0.487881853257889</v>
+        <v>0.6903880107821152</v>
       </c>
       <c r="L4">
-        <v>0.3058886117337565</v>
+        <v>0.171801043994499</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9725904820591609</v>
+        <v>0.8654131260739177</v>
       </c>
       <c r="C5">
-        <v>0.09164976188053231</v>
+        <v>0.08600493622717309</v>
       </c>
       <c r="D5">
-        <v>0.07566339541859435</v>
+        <v>0.03109513183093071</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.950490647101887</v>
+        <v>1.685107321714554</v>
       </c>
       <c r="G5">
-        <v>2.208534584098601</v>
+        <v>1.406264593651514</v>
       </c>
       <c r="H5">
-        <v>1.849477589627725</v>
+        <v>0.9623873163486252</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2491211236943229</v>
+        <v>0.1140143564381191</v>
       </c>
       <c r="K5">
-        <v>0.4808943659784859</v>
+        <v>0.6615806257602515</v>
       </c>
       <c r="L5">
-        <v>0.3051697018161263</v>
+        <v>0.1670380732917351</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9713787151113138</v>
+        <v>0.8597631395711574</v>
       </c>
       <c r="C6">
-        <v>0.0915901107445336</v>
+        <v>0.08586210535278838</v>
       </c>
       <c r="D6">
-        <v>0.07564077941324854</v>
+        <v>0.0309239967343089</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.950440048913265</v>
+        <v>1.682708149231814</v>
       </c>
       <c r="G6">
-        <v>2.20838138992211</v>
+        <v>1.404122628140925</v>
       </c>
       <c r="H6">
-        <v>1.849639450502025</v>
+        <v>0.9617444336627585</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2491525715956406</v>
+        <v>0.1139607127102558</v>
       </c>
       <c r="K6">
-        <v>0.4797386620072075</v>
+        <v>0.6568043966356072</v>
       </c>
       <c r="L6">
-        <v>0.3050525094891157</v>
+        <v>0.1662501310330526</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9798400704633252</v>
+        <v>0.8990539215338913</v>
       </c>
       <c r="C7">
-        <v>0.09200235642421717</v>
+        <v>0.08685222918222735</v>
       </c>
       <c r="D7">
-        <v>0.07580061240263802</v>
+        <v>0.03211390295933114</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.950892023372631</v>
+        <v>1.699557864406515</v>
       </c>
       <c r="G7">
-        <v>2.209525713317717</v>
+        <v>1.419165866791744</v>
       </c>
       <c r="H7">
-        <v>1.848570218650892</v>
+        <v>0.9663072398091543</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2489408090758616</v>
+        <v>0.1143435576054621</v>
       </c>
       <c r="K7">
-        <v>0.4877873118583693</v>
+        <v>0.6899990084693997</v>
       </c>
       <c r="L7">
-        <v>0.3058787700382481</v>
+        <v>0.1717366090713526</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.018421394234991</v>
+        <v>1.074428666250412</v>
       </c>
       <c r="C8">
-        <v>0.09377706578501943</v>
+        <v>0.09119350584491315</v>
       </c>
       <c r="D8">
-        <v>0.07657622599830916</v>
+        <v>0.03741829053254264</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.955379423650641</v>
+        <v>1.778993703456067</v>
       </c>
       <c r="G8">
-        <v>2.216580056642783</v>
+        <v>1.490097609431515</v>
       </c>
       <c r="H8">
-        <v>1.845194024316683</v>
+        <v>0.9890204426176439</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2481675344087861</v>
+        <v>0.1163006267328406</v>
       </c>
       <c r="K8">
-        <v>0.5239654541192635</v>
+        <v>0.8376639646560022</v>
       </c>
       <c r="L8">
-        <v>0.3098414026375451</v>
+        <v>0.1964018951668294</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.098522673503169</v>
+        <v>1.427277011437667</v>
       </c>
       <c r="C9">
-        <v>0.09709823304206822</v>
+        <v>0.09964593533614163</v>
       </c>
       <c r="D9">
-        <v>0.07834723994054116</v>
+        <v>0.04804549878576125</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.973136985386716</v>
+        <v>1.955224739374373</v>
       </c>
       <c r="G9">
-        <v>2.237627619089153</v>
+        <v>1.647650615875648</v>
       </c>
       <c r="H9">
-        <v>1.843392880378531</v>
+        <v>1.043782273748718</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2472290935122885</v>
+        <v>0.1211820811862196</v>
       </c>
       <c r="K9">
-        <v>0.5972724894597832</v>
+        <v>1.132920515152705</v>
       </c>
       <c r="L9">
-        <v>0.3187443301003725</v>
+        <v>0.2466830046623159</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.160069815274085</v>
+        <v>1.69382390782124</v>
       </c>
       <c r="C10">
-        <v>0.0994422228416596</v>
+        <v>0.1058611970491157</v>
       </c>
       <c r="D10">
-        <v>0.0797987640187543</v>
+        <v>0.05602563747609679</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.99164883008693</v>
+        <v>2.099441835061299</v>
       </c>
       <c r="G10">
-        <v>2.257502938068853</v>
+        <v>1.776834069128626</v>
       </c>
       <c r="H10">
-        <v>1.845006398141095</v>
+        <v>1.091233771603044</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2468909233522183</v>
+        <v>0.1254890097885166</v>
       </c>
       <c r="K10">
-        <v>0.6525663123615004</v>
+        <v>1.354811873470709</v>
       </c>
       <c r="L10">
-        <v>0.3259721391124373</v>
+        <v>0.2850811937905888</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.188652780599995</v>
+        <v>1.817123802702895</v>
       </c>
       <c r="C11">
-        <v>0.1004879037252877</v>
+        <v>0.1087003969914946</v>
       </c>
       <c r="D11">
-        <v>0.08049133038856837</v>
+        <v>0.05970200679838911</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.0012584158507</v>
+        <v>2.168802456943254</v>
       </c>
       <c r="G11">
-        <v>2.26750594877268</v>
+        <v>1.839049234242992</v>
       </c>
       <c r="H11">
-        <v>1.846378004157117</v>
+        <v>1.114628472859096</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.246813158880542</v>
+        <v>0.1276252588038957</v>
       </c>
       <c r="K11">
-        <v>0.6780320103719362</v>
+        <v>1.457201006987219</v>
       </c>
       <c r="L11">
-        <v>0.3294087582529102</v>
+        <v>0.3029365606904264</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.199560180414522</v>
+        <v>1.864149554542934</v>
       </c>
       <c r="C12">
-        <v>0.1008809240454625</v>
+        <v>0.1097782089544097</v>
       </c>
       <c r="D12">
-        <v>0.08075818741342999</v>
+        <v>0.06110155908297088</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.005068228713426</v>
+        <v>2.195657829168312</v>
       </c>
       <c r="G12">
-        <v>2.271432290276636</v>
+        <v>1.863152828084139</v>
       </c>
       <c r="H12">
-        <v>1.846989041964378</v>
+        <v>1.123769508551106</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2467946311778988</v>
+        <v>0.1284615148174097</v>
       </c>
       <c r="K12">
-        <v>0.6877199292309797</v>
+        <v>1.496214759748995</v>
       </c>
       <c r="L12">
-        <v>0.3307314175974909</v>
+        <v>0.3097600820575366</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.197207363433279</v>
+        <v>1.854006145805982</v>
       </c>
       <c r="C13">
-        <v>0.1007964114487265</v>
+        <v>0.1095459477215996</v>
       </c>
       <c r="D13">
-        <v>0.08070051118188104</v>
+        <v>0.06079979903775268</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.004240118219627</v>
+        <v>2.189846960650328</v>
       </c>
       <c r="G13">
-        <v>2.270580523993203</v>
+        <v>1.857936678923096</v>
       </c>
       <c r="H13">
-        <v>1.846853369045988</v>
+        <v>1.12178791312445</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2467981360783043</v>
+        <v>0.1282801665367543</v>
       </c>
       <c r="K13">
-        <v>0.6856314830430676</v>
+        <v>1.487801169023641</v>
       </c>
       <c r="L13">
-        <v>0.3304456139520937</v>
+        <v>0.3082876471869866</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.189548465021886</v>
+        <v>1.820985685853515</v>
       </c>
       <c r="C14">
-        <v>0.1005202969494334</v>
+        <v>0.108789009858981</v>
       </c>
       <c r="D14">
-        <v>0.08051319298160564</v>
+        <v>0.05981699613080593</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.001568427084862</v>
+        <v>2.170999738044912</v>
       </c>
       <c r="G14">
-        <v>2.267826196352047</v>
+        <v>1.841021056900161</v>
       </c>
       <c r="H14">
-        <v>1.846426438261801</v>
+        <v>1.115374728055798</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2468114158494785</v>
+        <v>0.127693499685023</v>
       </c>
       <c r="K14">
-        <v>0.6788281488559562</v>
+        <v>1.460405659595921</v>
       </c>
       <c r="L14">
-        <v>0.3295171481367163</v>
+        <v>0.3034966535953885</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.184868049136355</v>
+        <v>1.800804558721637</v>
       </c>
       <c r="C15">
-        <v>0.1003507840715301</v>
+        <v>0.1083257414529086</v>
       </c>
       <c r="D15">
-        <v>0.08039905262457125</v>
+        <v>0.05921598697528907</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.999954190818471</v>
+        <v>2.159533664353845</v>
       </c>
       <c r="G15">
-        <v>2.266157121390449</v>
+        <v>1.83073210291991</v>
       </c>
       <c r="H15">
-        <v>1.846176863731671</v>
+        <v>1.111483870062017</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2468209716428404</v>
+        <v>0.1273377628638173</v>
       </c>
       <c r="K15">
-        <v>0.674666711410282</v>
+        <v>1.443657553843252</v>
       </c>
       <c r="L15">
-        <v>0.3289512054629</v>
+        <v>0.3005703131285316</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.158213581506232</v>
+        <v>1.685810529193674</v>
       </c>
       <c r="C16">
-        <v>0.09937347102206928</v>
+        <v>0.1056759672689012</v>
       </c>
       <c r="D16">
-        <v>0.07975414875848941</v>
+        <v>0.05578636987701202</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.991044733471668</v>
+        <v>2.094988699812333</v>
       </c>
       <c r="G16">
-        <v>2.256868579963168</v>
+        <v>1.772841580755625</v>
       </c>
       <c r="H16">
-        <v>1.844929586742609</v>
+        <v>1.089743096133532</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2468975345660098</v>
+        <v>0.125353117426684</v>
       </c>
       <c r="K16">
-        <v>0.6509083276303329</v>
+        <v>1.348152407365177</v>
       </c>
       <c r="L16">
-        <v>0.3257505315455376</v>
+        <v>0.2839226350867534</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.142011403583751</v>
+        <v>1.615817255694566</v>
       </c>
       <c r="C17">
-        <v>0.09876864731899104</v>
+        <v>0.1040541064960223</v>
       </c>
       <c r="D17">
-        <v>0.07936675396665294</v>
+        <v>0.05369474961398879</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.985883442219574</v>
+        <v>2.056388551457772</v>
       </c>
       <c r="G17">
-        <v>2.251416754530567</v>
+        <v>1.738243909228345</v>
       </c>
       <c r="H17">
-        <v>1.844327695893696</v>
+        <v>1.076884073103088</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2469639735280396</v>
+        <v>0.1241822059354263</v>
       </c>
       <c r="K17">
-        <v>0.6364130979513902</v>
+        <v>1.289956785596303</v>
       </c>
       <c r="L17">
-        <v>0.323825031124727</v>
+        <v>0.2738134810677479</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.132747416024387</v>
+        <v>1.575748964887794</v>
       </c>
       <c r="C18">
-        <v>0.09841882817538306</v>
+        <v>0.1031223066665063</v>
       </c>
       <c r="D18">
-        <v>0.07914697374889101</v>
+        <v>0.05249600129268117</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.983026668523905</v>
+        <v>2.034537019538334</v>
       </c>
       <c r="G18">
-        <v>2.248371513511188</v>
+        <v>1.718665758536673</v>
       </c>
       <c r="H18">
-        <v>1.844041521671812</v>
+        <v>1.069656735676517</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2470093487280209</v>
+        <v>0.1235252694421689</v>
       </c>
       <c r="K18">
-        <v>0.628105233841012</v>
+        <v>1.256618524111985</v>
       </c>
       <c r="L18">
-        <v>0.3227315314168067</v>
+        <v>0.2680350596000096</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.129620262307611</v>
+        <v>1.562213983995036</v>
       </c>
       <c r="C19">
-        <v>0.09830005190380575</v>
+        <v>0.1028069680641366</v>
       </c>
       <c r="D19">
-        <v>0.07907308318032591</v>
+        <v>0.05209084173936418</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.982078627726068</v>
+        <v>2.027197169528208</v>
       </c>
       <c r="G19">
-        <v>2.247355987330934</v>
+        <v>1.712090755363334</v>
       </c>
       <c r="H19">
-        <v>1.843954937511882</v>
+        <v>1.067238045023032</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.247025942523095</v>
+        <v>0.1233056290407504</v>
       </c>
       <c r="K19">
-        <v>0.6252973936863668</v>
+        <v>1.245352880070641</v>
       </c>
       <c r="L19">
-        <v>0.3223636979866029</v>
+        <v>0.2660846013995979</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.14373045614019</v>
+        <v>1.623248213917975</v>
       </c>
       <c r="C20">
-        <v>0.09883323261877308</v>
+        <v>0.1042266408336374</v>
       </c>
       <c r="D20">
-        <v>0.07940767858118392</v>
+        <v>0.05391695626489934</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.986421293116962</v>
+        <v>2.06046100509792</v>
       </c>
       <c r="G20">
-        <v>2.251987742748952</v>
+        <v>1.741893279702168</v>
       </c>
       <c r="H20">
-        <v>1.844385556954251</v>
+        <v>1.078235312192248</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2469561599599643</v>
+        <v>0.124305126634404</v>
       </c>
       <c r="K20">
-        <v>0.6379530983345489</v>
+        <v>1.296137679115475</v>
       </c>
       <c r="L20">
-        <v>0.324028555926887</v>
+        <v>0.274885837913601</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.191795802443949</v>
+        <v>1.830675169619354</v>
       </c>
       <c r="C21">
-        <v>0.1006014786436182</v>
+        <v>0.1090112602376507</v>
       </c>
       <c r="D21">
-        <v>0.0805680884434139</v>
+        <v>0.06010546224722901</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.002348530346836</v>
+        <v>2.176519191450524</v>
       </c>
       <c r="G21">
-        <v>2.268631451412801</v>
+        <v>1.845974414925763</v>
       </c>
       <c r="H21">
-        <v>1.846549351458094</v>
+        <v>1.117250599408152</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2468072190422319</v>
+        <v>0.1278650613651706</v>
       </c>
       <c r="K21">
-        <v>0.6808252445743221</v>
+        <v>1.468445562756301</v>
       </c>
       <c r="L21">
-        <v>0.3297892840620023</v>
+        <v>0.3049021466593302</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.22369666173222</v>
+        <v>1.968213337566738</v>
       </c>
       <c r="C22">
-        <v>0.1017399014700686</v>
+        <v>0.1121543631258959</v>
       </c>
       <c r="D22">
-        <v>0.08135326001617216</v>
+        <v>0.06419348757957266</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.013753857361849</v>
+        <v>2.255835388102767</v>
       </c>
       <c r="G22">
-        <v>2.280315949699826</v>
+        <v>1.917194131488458</v>
       </c>
       <c r="H22">
-        <v>1.848497645353262</v>
+        <v>1.144404471524354</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2467735190887268</v>
+        <v>0.1303518151641327</v>
       </c>
       <c r="K22">
-        <v>0.7091045691662714</v>
+        <v>1.582482055964306</v>
       </c>
       <c r="L22">
-        <v>0.3336782843926329</v>
+        <v>0.324884730540802</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.206626125644021</v>
+        <v>1.894611797783313</v>
       </c>
       <c r="C23">
-        <v>0.1011338776107138</v>
+        <v>0.1104750129357583</v>
       </c>
       <c r="D23">
-        <v>0.08093176285376558</v>
+        <v>0.06200738676869122</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.007575498284268</v>
+        <v>2.213168073176021</v>
       </c>
       <c r="G23">
-        <v>2.274005838723497</v>
+        <v>1.878873303958756</v>
       </c>
       <c r="H23">
-        <v>1.847408946681156</v>
+        <v>1.129752750221144</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2467856883832553</v>
+        <v>0.1290092817065798</v>
       </c>
       <c r="K23">
-        <v>0.6939876758729042</v>
+        <v>1.521476793403707</v>
       </c>
       <c r="L23">
-        <v>0.3315913323103814</v>
+        <v>0.3141840036751233</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.142953114021111</v>
+        <v>1.619888145683376</v>
       </c>
       <c r="C24">
-        <v>0.09880404014103306</v>
+        <v>0.1041486361706134</v>
       </c>
       <c r="D24">
-        <v>0.07938916740845769</v>
+        <v>0.05381648500740255</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.986177786444259</v>
+        <v>2.058618792861282</v>
       </c>
       <c r="G24">
-        <v>2.251729321479075</v>
+        <v>1.740242429492525</v>
       </c>
       <c r="H24">
-        <v>1.844359211490314</v>
+        <v>1.077623903177397</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2469596701122043</v>
+        <v>0.1242495037526865</v>
       </c>
       <c r="K24">
-        <v>0.6372567842858246</v>
+        <v>1.293342928386835</v>
       </c>
       <c r="L24">
-        <v>0.3239365003193342</v>
+        <v>0.2744009216154382</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.076378724724435</v>
+        <v>1.330682032364876</v>
       </c>
       <c r="C25">
-        <v>0.0962167044619946</v>
+        <v>0.09736170915109454</v>
       </c>
       <c r="D25">
-        <v>0.07784158077770087</v>
+        <v>0.0451429977989477</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.967373645019933</v>
+        <v>1.905135835924284</v>
       </c>
       <c r="G25">
-        <v>2.231159958297553</v>
+        <v>1.602837912495175</v>
       </c>
       <c r="H25">
-        <v>1.843364309829497</v>
+        <v>1.027776298147302</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2474212003473042</v>
+        <v>0.1197414742993175</v>
       </c>
       <c r="K25">
-        <v>0.5771886440400351</v>
+        <v>1.052289435693325</v>
       </c>
       <c r="L25">
-        <v>0.3162149952619728</v>
+        <v>0.2328472192231459</v>
       </c>
       <c r="M25">
         <v>0</v>
